--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/GitHub/Influenza_A_2.3.4.4b_Analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/Influenza_A_2.3.4.4b_Analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65DA03F-4E72-824A-B747-255E8A4C1BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84D5EE4-F802-FC4D-BBDC-8DCEBDFA723C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22740" activeTab="1" xr2:uid="{448B3974-CF15-7B45-A875-FC86B3B75F4E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{448B3974-CF15-7B45-A875-FC86B3B75F4E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Viral Proteins" sheetId="2" r:id="rId1"/>
-    <sheet name="Glycans" sheetId="3" r:id="rId2"/>
+    <sheet name="Experiments" sheetId="4" r:id="rId1"/>
+    <sheet name="Viral Proteins" sheetId="2" r:id="rId2"/>
+    <sheet name="Glycans" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>EPI3171488</t>
   </si>
@@ -142,6 +143,24 @@
   </si>
   <si>
     <t>MENIVLLLAIVSLVKSDQICIGYHANNSTEQVDTIMEKNVTVTHAQDILEKTHNGKLCDLNGVKPLILKDCSVAGWLLGNPMCDEFIRVPEWSYIVERANPANDLCYPGSLNDYEELKHLLSRINHFEKILIIPKSSWPNHETSLGVSAACPYQGAPSFFRNVVWLIKKNDAYPTIKISYNNTNREDLLILWGIHHSNNAEEQTNLYKNPTTYISVGTSTLNQRLVPKIATRSQVNGQRGRMDFFWTILKPDDAIHFESNGNFIAPEYAYKIVKKGDSTIMKSGVEYGHCNTKCQTPVGAINSSMPFHNIHPLTIGECPKYVKSNKLVLATGLRNSPLREKRRKRGLFGAIAGFIEGGWQGMVDGWYGYHHSNEQGSGYAADKESTQKAIDGVTNKVNSIIDKMNTQFEAVGREFNNLERRIENLNKKMEDGFLDVWTYNAELLVLMENERTLDFHDSNVKNLYDKVRLQLRDNAKELGNGCFEFYHKCDNECMESVRNGTYDYPQYSEEARLKREEISGVKLESIGTYQILSIYSTAASSLALAIMMAGLSLWMCSNGSLQCRICI</t>
+  </si>
+  <si>
+    <t>[H]OC(=O)C1(OC2([H])C([H])(O[H])C([H])(OC3([H])C([H])(C([H])([H])O[H])OC(=O)C([H])(N([H])C(=O)C([H])([H])[H])C3([H])O[H])OC([H])(C([H])([H])O[H])C2([H])O[H])OC([H])(C([H])(O[H])C([H])(O[H])C([H])([H])O[H])C([H])(N([H])C(=O)C([H])([H])[H])C([H])(O[H])C1([H])[H]</t>
+  </si>
+  <si>
+    <t>experiment_id</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>glycan</t>
+  </si>
+  <si>
+    <t>4KDO_I</t>
+  </si>
+  <si>
+    <t>4K63_I</t>
   </si>
 </sst>
 </file>
@@ -531,14 +550,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4F9E9F-6AB4-2D49-8C79-54991724125D}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT(B2,"__",C2)</f>
+        <v>EPI3171488__4KDO_I</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A9" si="0">_xlfn.CONCAT(B3,"__",C3)</f>
+        <v>EPI1846961__4KDO_I</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>PQ809550__4KDO_I</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>PQ591824__4KDO_I</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>EPI3171488__4K63_I</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>EPI1846961__4K63_I</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>PQ809550__4K63_I</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>PQ591824__4K63_I</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52159CEC-AD14-A747-AD26-438C07B90A99}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="83.33203125" style="2" customWidth="1"/>
@@ -636,25 +782,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C62F8A9-8514-C343-B879-A8280051E85A}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="6" width="47.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -670,11 +816,12 @@
       <c r="E1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>_xlfn.CONCAT(B2,"_",C2)</f>
         <v>4KDO_I</v>
@@ -691,11 +838,11 @@
       <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>_xlfn.CONCAT(B3,"_",C3)</f>
         <v>4K63_I</v>
@@ -712,7 +859,10 @@
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/Influenza_A_2.3.4.4b_Analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Influenza_A_2.3.4.4b_Analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84D5EE4-F802-FC4D-BBDC-8DCEBDFA723C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD31836-2783-4E69-9A01-5A6108692934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{448B3974-CF15-7B45-A875-FC86B3B75F4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{448B3974-CF15-7B45-A875-FC86B3B75F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>EPI3171488</t>
   </si>
@@ -161,6 +161,87 @@
   </si>
   <si>
     <t>4K63_I</t>
+  </si>
+  <si>
+    <t>D104</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>L120</t>
+  </si>
+  <si>
+    <t>L131</t>
+  </si>
+  <si>
+    <t>V147</t>
+  </si>
+  <si>
+    <t>T211</t>
+  </si>
+  <si>
+    <t>V226</t>
+  </si>
+  <si>
+    <t>S336</t>
+  </si>
+  <si>
+    <t>I526</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>`148,149,202,238,239,240</t>
+  </si>
+  <si>
+    <t>`195,237,239</t>
+  </si>
+  <si>
+    <t>`107,147,148,149,202,237,238</t>
+  </si>
+  <si>
+    <t>haddock3_polar_interface</t>
+  </si>
+  <si>
+    <t>`147,148,149,202,238,239,240</t>
+  </si>
+  <si>
+    <t>`106,147,198,199,201,237,238,239,240</t>
+  </si>
+  <si>
+    <t>`145,147,148,149,195,237,238,239,240</t>
+  </si>
+  <si>
+    <t>`107,145,147,148,168,237,238</t>
+  </si>
+  <si>
+    <t>`107,147,195,238,239</t>
   </si>
 </sst>
 </file>
@@ -180,6 +261,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -203,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -216,6 +298,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,20 +637,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4F9E9F-6AB4-2D49-8C79-54991724125D}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -574,8 +661,11 @@
       <c r="C1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>_xlfn.CONCAT(B2,"__",C2)</f>
         <v>EPI3171488__4KDO_I</v>
@@ -586,8 +676,11 @@
       <c r="C2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A9" si="0">_xlfn.CONCAT(B3,"__",C3)</f>
         <v>EPI1846961__4KDO_I</v>
@@ -598,8 +691,11 @@
       <c r="C3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>PQ809550__4KDO_I</v>
@@ -610,8 +706,11 @@
       <c r="C4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>PQ591824__4KDO_I</v>
@@ -622,8 +721,11 @@
       <c r="C5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>EPI3171488__4K63_I</v>
@@ -634,8 +736,11 @@
       <c r="C6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>EPI1846961__4K63_I</v>
@@ -646,8 +751,11 @@
       <c r="C7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>PQ809550__4K63_I</v>
@@ -658,8 +766,11 @@
       <c r="C8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>PQ591824__4K63_I</v>
@@ -669,6 +780,9 @@
       </c>
       <c r="C9" t="s">
         <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -678,21 +792,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52159CEC-AD14-A747-AD26-438C07B90A99}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="83.33203125" style="2" customWidth="1"/>
+    <col min="1" max="3" width="10.875" style="1"/>
+    <col min="4" max="4" width="83.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -708,8 +829,32 @@
       <c r="E1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="126" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,8 +870,32 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="F2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="126" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -742,8 +911,32 @@
       <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="F3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="126" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,8 +952,32 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="F4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="126" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -775,6 +992,30 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -790,17 +1031,17 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.83203125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="47.6640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="47.625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -821,7 +1062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>_xlfn.CONCAT(B2,"_",C2)</f>
         <v>4KDO_I</v>
@@ -842,7 +1083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>_xlfn.CONCAT(B3,"_",C3)</f>
         <v>4K63_I</v>
